--- a/biology/Zoologie/Hipparchia_semele/Hipparchia_semele.xlsx
+++ b/biology/Zoologie/Hipparchia_semele/Hipparchia_semele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agreste
 Hipparchia semele, l'Agreste, est une espèce de papillons de la famille des Nymphalidés (sous-famille des Satyrinés).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agreste est de couleur marron foncé avec une bande submarginale jaune orangé marquée chez la femelle, plus discrète chez le mâle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés aux antérieures et un très petit aux postérieures. 
 Le revers des antérieures est  jaune orangé entouré d'une bande marbrée de marron et de blanc avec les deux ocelles noirs alors que les postérieures sont marbrées de marron et de blanc.
@@ -521,10 +535,6 @@
 			♂ △ Revers
 			♀ Face dorsale MHNT
 			♀ △ Revers
-Chenille
-La chenille possède une tête grise et un corps beige clair orné d'une bande dorsale marron et de deux bandes latérales ocre flanc[1].
-			Un œuf
-			La chenille
 </t>
         </is>
       </c>
@@ -550,15 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste vole en une génération entre juin et septembre[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses poacées (Graminées): Aira praecox, Bromus erectus, Calamagrostis neglecta, Corynephorus canescens, Dactylis glomerata, Deschampsia cespitosa, Elymus arenarius, Elymus repens, Elytrigia repens, Festuca ovina , des  Agropyron, des Triticum [3],[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille possède une tête grise et un corps beige clair orné d'une bande dorsale marron et de deux bandes latérales ocre flanc.
+			Un œuf
+			La chenille
 </t>
         </is>
       </c>
@@ -584,16 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Agreste est présent dans toute l'Europe jusqu'au 63°N et dans tout le sud de la Russie mais absent d'Albanie, Macédoine et Grèce[2].
-L'Agreste est présent dans presque tous les départements de la France métropolitaine excepté l'Île-de-France, la Creuse et la Corse, mais il n'a pas été retrouvé depuis 1980 dans de nombreux départements, en particulier dans le Centre-Val de Loire, la Nouvelle-Aquitaine et la Bourgogne-Franche-Comté[4].
-En Belgique, il est considéré "en danger critique"[5].
-Biotope
-Il réside dans des landes à bruyères, des bois clairs, des lieux buissonneux.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste vole en une génération entre juin et septembre.
 </t>
         </is>
       </c>
@@ -619,66 +636,320 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses poacées (Graminées): Aira praecox, Bromus erectus, Calamagrostis neglecta, Corynephorus canescens, Dactylis glomerata, Deschampsia cespitosa, Elymus arenarius, Elymus repens, Elytrigia repens, Festuca ovina , des  Agropyron, des Triticum ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste est présent dans toute l'Europe jusqu'au 63°N et dans tout le sud de la Russie mais absent d'Albanie, Macédoine et Grèce.
+L'Agreste est présent dans presque tous les départements de la France métropolitaine excepté l'Île-de-France, la Creuse et la Corse, mais il n'a pas été retrouvé depuis 1980 dans de nombreux départements, en particulier dans le Centre-Val de Loire, la Nouvelle-Aquitaine et la Bourgogne-Franche-Comté.
+En Belgique, il est considéré "en danger critique".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des landes à bruyères, des bois clairs, des lieux buissonneux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Hipparchia semele a été décrite par le naturalise suédois Carl von Linné en 1758, sous le nom initial de Papilio semele.
-Synonymes
-Papilio semele Linnaeus, 1758
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Papilio semele Linnaeus, 1758
 Hipparchia wilkinsoni Kudrna, 1977
-Satyrus cadmus Fruhstorfer, 1908
-Noms vernaculaires
-L'Agreste en français
-Rock Grayling ou Grayling en anglais, Ockerbindiger Samtfalter en allemand et Pardo-rubia en espagnol[6],[3].
-Taxinomie
-Sous-espèces
+Satyrus cadmus Fruhstorfer, 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'Agreste en français
+Rock Grayling ou Grayling en anglais, Ockerbindiger Samtfalter en allemand et Pardo-rubia en espagnol,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Hipparchia semele semele, répandue en Europe mais en régression
 Hipparchia semele atlantica, dans le nord-ouest de l'Écosse.
 Hipparchia semele cadmus (Fruhstorfer, 1908); dans les régions montagneuses d'Europe
 Hipparchia semele clarensis, en Irlande.
 Hipparchia semele hibernica, en Irlande.
-Hipparchia semele leighebi (Kudrna, 1976); ou Hipparchia leighebi dans les îles Éoliennes, en Sicile[3].
+Hipparchia semele leighebi (Kudrna, 1976); ou Hipparchia leighebi dans les îles Éoliennes, en Sicile.
 Hipparchia semele pellucida (Stauder, 1924);qui est considérée par certains comme une espèce distincte Hipparchia pellucida
-Hipparchia semele sbordonii (Kudrna, 1984); îles italiennes Pontines[2].
+Hipparchia semele sbordonii (Kudrna, 1984); îles italiennes Pontines.
 Hipparchia semele scota, sur les côtes d'Écosse.
-Hipparchia semele thyone[7]
+Hipparchia semele thyone
 La taxonomie est encore en étude et certains pensent que Hipparchia semele sbordonii est une espèce distincte, alors que d'autres placent Hipparchia creticaca comme Hipparchia semele cretica mais les genitalia seraient différentes. Les questions se posent aussi pour Hipparchia pellucida et pour Hipparchia volgensis.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hipparchia_semele</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>L'Agreste et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Pas de statut de protection particulier[8].
-Dans la culture populaire
-Dans la série d'animation Miraculous, les aventures de Ladybug et Chat Noir, le patronyme de la famille Agreste fait référence au papillon[réf. souhaitée]
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipparchia_semele</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>L'Agreste et l'Homme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série d'animation Miraculous, les aventures de Ladybug et Chat Noir, le patronyme de la famille Agreste fait référence au papillon[réf. souhaitée]
 </t>
         </is>
       </c>
